--- a/CPU.xlsx
+++ b/CPU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\Microcontroller\CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368C75F9-C44E-4B40-AE05-85E8E0DF6709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F05D29-7896-4595-AC06-B59AA98FE1C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1562,10 +1562,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP214"/>
   <sheetViews>
-    <sheetView topLeftCell="S73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA94" sqref="U94:AA94"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9:AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,27 +1945,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
@@ -1983,30 +1983,30 @@
       </c>
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="P2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="8"/>
       <c r="S2" t="s">
         <v>11</v>
       </c>
@@ -2163,51 +2163,51 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8" t="s">
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8" t="s">
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8" t="s">
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
       <c r="AM3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="8"/>
+      <c r="AO3" s="9"/>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
-      <c r="AS3" s="8" t="s">
+      <c r="AS3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="AC4" s="1"/>
@@ -38842,6 +38842,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AS3:BH3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -38849,12 +38855,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AS3:BH3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AN3:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="AC42:BG47">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
@@ -40067,7 +40067,7 @@
   <dimension ref="A1:CL110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y62" sqref="Y62"/>
+      <selection activeCell="BF4" sqref="BF4:BF70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40107,27 +40107,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
       <c r="T1" t="s">
         <v>370</v>
       </c>
@@ -40145,30 +40145,30 @@
       </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="P2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="8"/>
       <c r="S2" t="s">
         <v>11</v>
       </c>
@@ -40322,60 +40322,60 @@
       <c r="S3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9" t="s">
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9" t="s">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
       <c r="AL3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9" t="s">
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9" t="s">
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9" t="s">
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9" t="s">
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9" t="s">
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9" t="s">
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="BD3" s="9"/>
+      <c r="BD3" s="8"/>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="Y4">
@@ -49981,9 +49981,12 @@
       <c r="AW60">
         <v>1</v>
       </c>
+      <c r="AX60">
+        <v>1</v>
+      </c>
       <c r="BF60" t="str">
         <f t="shared" si="7"/>
-        <v>00000180</v>
+        <v>000001C0</v>
       </c>
       <c r="BG60">
         <f t="shared" si="8"/>
@@ -50087,7 +50090,7 @@
       </c>
       <c r="CF60">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="CG60">
         <f t="shared" si="34"/>
@@ -52787,6 +52790,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="A1:S1"/>
@@ -52799,11 +52807,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CPU.xlsx
+++ b/CPU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\Microcontroller\CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F05D29-7896-4595-AC06-B59AA98FE1C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9344BCA8-1BAB-45CD-8B48-F619996AB4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstructionSet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="492">
   <si>
     <t>Instruction Format</t>
   </si>
@@ -1494,6 +1494,24 @@
   <si>
     <t>// PC++</t>
   </si>
+  <si>
+    <t>Move Data</t>
+  </si>
+  <si>
+    <t>Source In</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
 </sst>
 </file>
 
@@ -1562,10 +1580,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1901,29 +1919,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP214"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9:AO9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="8.42578125" customWidth="1"/>
-    <col min="17" max="17" width="4" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" customWidth="1"/>
@@ -1945,27 +1963,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
@@ -1983,30 +2001,30 @@
       </c>
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="9"/>
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="9"/>
       <c r="S2" t="s">
         <v>11</v>
       </c>
@@ -2163,51 +2181,51 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9" t="s">
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9" t="s">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9" t="s">
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
       <c r="AM3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AN3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="9"/>
+      <c r="AO3" s="8"/>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="AC4" s="1"/>
@@ -3390,9 +3408,18 @@
       </c>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" s="1">
+        <v>110</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
+      <c r="J11" t="s">
+        <v>490</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>80</v>
       </c>
@@ -3794,6 +3821,9 @@
       </c>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>489</v>
+      </c>
       <c r="U13" t="s">
         <v>460</v>
       </c>
@@ -3978,6 +4008,9 @@
       </c>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>487</v>
+      </c>
       <c r="U14" t="s">
         <v>461</v>
       </c>
@@ -4162,6 +4195,9 @@
       </c>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="U15" t="s">
         <v>462</v>
       </c>
@@ -4530,6 +4566,12 @@
       </c>
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="U17" t="s">
         <v>464</v>
       </c>
@@ -4714,6 +4756,10 @@
       </c>
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="J18" s="2"/>
       <c r="U18" t="s">
         <v>465</v>
@@ -4902,7 +4948,9 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -5108,7 +5156,9 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5314,6 +5364,10 @@
       </c>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="U21" t="s">
         <v>468</v>
       </c>
@@ -5507,6 +5561,10 @@
       </c>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="U22" t="s">
         <v>469</v>
       </c>
@@ -5700,6 +5758,10 @@
       </c>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>489</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="U23" t="s">
         <v>62</v>
       </c>
@@ -5887,6 +5949,10 @@
       </c>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="U24" t="s">
         <v>70</v>
       </c>
@@ -6071,6 +6137,9 @@
       </c>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>491</v>
+      </c>
       <c r="U25" t="s">
         <v>74</v>
       </c>
@@ -6255,6 +6324,9 @@
       </c>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>378</v>
+      </c>
       <c r="U26" t="s">
         <v>78</v>
       </c>
@@ -6439,6 +6511,9 @@
       </c>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
       <c r="U27" t="s">
         <v>81</v>
       </c>
@@ -38842,12 +38917,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AS3:BH3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -38855,6 +38924,12 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AS3:BH3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AN3:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="AC42:BG47">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
@@ -40066,8 +40141,8 @@
   </sheetPr>
   <dimension ref="A1:CL110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF4" sqref="BF4:BF70"/>
+    <sheetView topLeftCell="Q39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX60" sqref="U60:AX60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40107,27 +40182,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
       <c r="T1" t="s">
         <v>370</v>
       </c>
@@ -40145,30 +40220,30 @@
       </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="9"/>
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="9"/>
       <c r="S2" t="s">
         <v>11</v>
       </c>
@@ -40322,60 +40397,60 @@
       <c r="S3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8" t="s">
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8" t="s">
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
       <c r="AL3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AM3" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8" t="s">
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8" t="s">
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8" t="s">
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8" t="s">
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8" t="s">
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8" t="s">
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="BD3" s="8"/>
+      <c r="BD3" s="9"/>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="Y4">
@@ -52790,11 +52865,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="A1:S1"/>
@@ -52807,6 +52877,11 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CPU.xlsx
+++ b/CPU.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\Microcontroller\CPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\GitHub\CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9344BCA8-1BAB-45CD-8B48-F619996AB4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C11F2-A3F0-4AB8-A555-DFDBE0DE17C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstructionSet" sheetId="1" r:id="rId1"/>
-    <sheet name="Set" sheetId="5" r:id="rId2"/>
-    <sheet name="FetchExecuteCycle" sheetId="2" r:id="rId3"/>
+    <sheet name="InstructioneSetV2" sheetId="6" r:id="rId2"/>
+    <sheet name="Set" sheetId="5" r:id="rId3"/>
+    <sheet name="FetchExecuteCycle" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="507">
   <si>
     <t>Instruction Format</t>
   </si>
@@ -1512,12 +1513,57 @@
   <si>
     <t>CR</t>
   </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>DivMod</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>RRV</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>SHR</t>
+  </si>
+  <si>
+    <t>SHL</t>
+  </si>
+  <si>
+    <t>SHLR</t>
+  </si>
+  <si>
+    <t>SHLL</t>
+  </si>
+  <si>
+    <t>INV</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,13 +1592,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1564,10 +1622,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1580,14 +1639,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1919,7 +1980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1963,27 +2024,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
@@ -2001,30 +2062,30 @@
       </c>
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="P2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="8"/>
       <c r="S2" t="s">
         <v>11</v>
       </c>
@@ -2181,51 +2242,51 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8" t="s">
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8" t="s">
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8" t="s">
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
       <c r="AM3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AO3" s="8"/>
+      <c r="AO3" s="9"/>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
-      <c r="AS3" s="8" t="s">
+      <c r="AS3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="AC4" s="1"/>
@@ -38917,6 +38978,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AS3:BH3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -38924,12 +38991,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AS3:BH3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AN3:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="AC42:BG47">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
@@ -38976,6 +39037,472 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F503B65-843C-459C-96CC-4F6A4CE4A550}">
+  <dimension ref="A2:B60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>497</v>
+      </c>
+      <c r="B21" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>499</v>
+      </c>
+      <c r="B22" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>502</v>
+      </c>
+      <c r="B34" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>503</v>
+      </c>
+      <c r="B35" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>504</v>
+      </c>
+      <c r="B36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>455</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>307</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>505</v>
+      </c>
+      <c r="B57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>506</v>
+      </c>
+      <c r="B58" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B144"/>
   <sheetViews>
@@ -40134,7 +40661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -40182,27 +40709,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
       <c r="T1" t="s">
         <v>370</v>
       </c>
@@ -40220,30 +40747,30 @@
       </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="P2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="8"/>
       <c r="S2" t="s">
         <v>11</v>
       </c>
@@ -40397,60 +40924,60 @@
       <c r="S3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9" t="s">
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9" t="s">
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
       <c r="AL3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9" t="s">
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9" t="s">
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9" t="s">
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9" t="s">
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9" t="s">
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9" t="s">
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="BD3" s="9"/>
+      <c r="BD3" s="8"/>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="Y4">
@@ -52865,6 +53392,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="A1:S1"/>
@@ -52877,11 +53409,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CPU.xlsx
+++ b/CPU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\GitHub\CPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\Microcontroller\CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C11F2-A3F0-4AB8-A555-DFDBE0DE17C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F272FAA2-EA46-4959-8CB0-0DB96121F758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="546">
   <si>
     <t>Instruction Format</t>
   </si>
@@ -1499,9 +1499,6 @@
     <t>Move Data</t>
   </si>
   <si>
-    <t>Source In</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -1529,13 +1526,7 @@
     <t>MOV</t>
   </si>
   <si>
-    <t>LD</t>
-  </si>
-  <si>
     <t>RRV</t>
-  </si>
-  <si>
-    <t>ST</t>
   </si>
   <si>
     <t>R</t>
@@ -1557,6 +1548,132 @@
   </si>
   <si>
     <t>NEG</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>PUSH</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Stick X</t>
+  </si>
+  <si>
+    <t>Stick Y</t>
+  </si>
+  <si>
+    <t>LED X</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>LED Set</t>
+  </si>
+  <si>
+    <t>Keyboard/Screen</t>
+  </si>
+  <si>
+    <t>Input Devices</t>
+  </si>
+  <si>
+    <t>Output Devices</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>Terget</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>Registers</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>GSP</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>CCR</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>Bits</t>
   </si>
 </sst>
 </file>
@@ -1639,13 +1756,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1981,7 +2098,7 @@
   <dimension ref="A1:CP214"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D14" sqref="D14:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,27 +2141,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
@@ -2062,30 +2179,30 @@
       </c>
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="10"/>
+      <c r="M2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="10"/>
       <c r="S2" t="s">
         <v>11</v>
       </c>
@@ -3479,7 +3596,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>80</v>
@@ -3883,7 +4000,7 @@
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U13" t="s">
         <v>460</v>
@@ -4070,7 +4187,13 @@
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>487</v>
+        <v>525</v>
+      </c>
+      <c r="M14" t="s">
+        <v>517</v>
+      </c>
+      <c r="P14" t="s">
+        <v>518</v>
       </c>
       <c r="U14" t="s">
         <v>461</v>
@@ -4257,7 +4380,19 @@
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
+      </c>
+      <c r="M15" t="s">
+        <v>516</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="U15" t="s">
         <v>462</v>
@@ -4443,6 +4578,18 @@
       </c>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>510</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="U16" t="s">
         <v>463</v>
       </c>
@@ -4631,7 +4778,19 @@
         <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
+      </c>
+      <c r="M17" t="s">
+        <v>511</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="U17" t="s">
         <v>464</v>
@@ -4818,10 +4977,21 @@
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>526</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="J18" s="2"/>
+      <c r="N18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="U18" t="s">
         <v>465</v>
       </c>
@@ -5009,10 +5179,12 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1"/>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5020,7 +5192,18 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" t="s">
+        <v>514</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="U19" t="s">
         <v>466</v>
       </c>
@@ -5218,9 +5401,11 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5229,6 +5414,12 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="U20" t="s">
         <v>467</v>
       </c>
@@ -5425,10 +5616,18 @@
       </c>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="U21" t="s">
         <v>468</v>
       </c>
@@ -5623,9 +5822,17 @@
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>529</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="U22" t="s">
         <v>469</v>
       </c>
@@ -5820,9 +6027,12 @@
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>489</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>530</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q23" s="1"/>
       <c r="U23" t="s">
         <v>62</v>
       </c>
@@ -6011,9 +6221,12 @@
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>490</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>531</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q24" s="1"/>
       <c r="U24" t="s">
         <v>70</v>
       </c>
@@ -6199,8 +6412,12 @@
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>491</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q25" s="1"/>
       <c r="U25" t="s">
         <v>74</v>
       </c>
@@ -6386,8 +6603,12 @@
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>378</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1001</v>
+      </c>
+      <c r="Q26" s="1"/>
       <c r="U26" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6794,12 @@
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>67</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1010</v>
+      </c>
+      <c r="Q27" s="1"/>
       <c r="U27" t="s">
         <v>81</v>
       </c>
@@ -6759,6 +6984,13 @@
       </c>
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>490</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1011</v>
+      </c>
+      <c r="Q28" s="1"/>
       <c r="U28" t="s">
         <v>86</v>
       </c>
@@ -6943,6 +7175,13 @@
       </c>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1100</v>
+      </c>
+      <c r="Q29" s="1"/>
       <c r="U29" t="s">
         <v>88</v>
       </c>
@@ -7127,6 +7366,13 @@
       </c>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>535</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1101</v>
+      </c>
+      <c r="Q30" s="1"/>
       <c r="U30" t="s">
         <v>90</v>
       </c>
@@ -7311,6 +7557,13 @@
       </c>
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>536</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1110</v>
+      </c>
+      <c r="Q31" s="1"/>
       <c r="U31" t="s">
         <v>92</v>
       </c>
@@ -7504,6 +7757,13 @@
       </c>
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>537</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1111</v>
+      </c>
+      <c r="Q32" s="1"/>
       <c r="U32" t="s">
         <v>95</v>
       </c>
@@ -7699,7 +7959,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:94" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1"/>
       <c r="U33" t="s">
         <v>97</v>
       </c>
@@ -7892,7 +8153,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:94" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1"/>
       <c r="U34" t="s">
         <v>99</v>
       </c>
@@ -8085,7 +8347,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:94" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1"/>
       <c r="U35" t="s">
         <v>101</v>
       </c>
@@ -8278,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U36" t="s">
         <v>104</v>
       </c>
@@ -8468,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U37" t="s">
         <v>106</v>
       </c>
@@ -8658,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U38" t="s">
         <v>108</v>
       </c>
@@ -8848,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U39" t="s">
         <v>110</v>
       </c>
@@ -9050,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="40" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U40" t="s">
         <v>112</v>
       </c>
@@ -9249,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U41" t="s">
         <v>114</v>
       </c>
@@ -9448,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U42" t="s">
         <v>116</v>
       </c>
@@ -9647,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U43" t="s">
         <v>118</v>
       </c>
@@ -9831,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U44" t="s">
         <v>121</v>
       </c>
@@ -10012,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="45" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U45" t="s">
         <v>123</v>
       </c>
@@ -10193,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U46" t="s">
         <v>125</v>
       </c>
@@ -10374,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="47" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U47" t="s">
         <v>127</v>
       </c>
@@ -10567,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="21:94" x14ac:dyDescent="0.25">
+    <row r="48" spans="17:94" x14ac:dyDescent="0.25">
       <c r="U48" t="s">
         <v>129</v>
       </c>
@@ -38978,12 +39241,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AS3:BH3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -38991,6 +39248,12 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AS3:BH3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AN3:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="AC42:BG47">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
@@ -39038,463 +39301,4007 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F503B65-843C-459C-96CC-4F6A4CE4A550}">
-  <dimension ref="A2:B60"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="J2" sqref="J2:J256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <f>DEC2BIN(A2, 8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2">
+        <f>SUM(E2:I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f>DEC2BIN(A3, 8)</f>
+        <v>00000001</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">SUM(E3:I3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B67" si="1">DEC2BIN(A4, 8)</f>
+        <v>00000010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>00000011</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>00000100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>00000110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>00000111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>00001000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>00001001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>00001010</v>
+      </c>
+      <c r="C12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>00001011</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>00001100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>492</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>00001101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>00001110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>00001111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>491</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>00010000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>00010001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D19" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>00010010</v>
+      </c>
+      <c r="C20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" t="s">
+        <v>492</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>00010011</v>
+      </c>
+      <c r="C21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>00010100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D22" t="s">
+        <v>504</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>00010101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>506</v>
+      </c>
+      <c r="D23" t="s">
+        <v>496</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>00010110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>506</v>
+      </c>
+      <c r="D24" t="s">
+        <v>504</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>00010111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D25" t="s">
+        <v>491</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>00011000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26" t="s">
+        <v>492</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>00011001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>524</v>
+      </c>
+      <c r="D27" t="s">
+        <v>491</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>00011010</v>
+      </c>
+      <c r="C28" t="s">
+        <v>524</v>
+      </c>
+      <c r="D28" t="s">
+        <v>492</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>00011011</v>
+      </c>
+      <c r="C29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>00011100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" t="s">
+        <v>497</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>00011101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>367</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>00011110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>00011111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>367</v>
+      </c>
+      <c r="D33" t="s">
+        <v>497</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>00100000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>497</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>00100001</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>497</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>00100010</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>00100011</v>
+      </c>
+      <c r="C37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" t="s">
+        <v>497</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>00100100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>00100101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>498</v>
+      </c>
+      <c r="D39" t="s">
+        <v>497</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>00100110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" t="s">
+        <v>497</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>00100111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>500</v>
+      </c>
+      <c r="D41" t="s">
+        <v>497</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>00101000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>501</v>
+      </c>
+      <c r="D42" t="s">
+        <v>497</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>00101001</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>00101010</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>00101011</v>
+      </c>
+      <c r="C45" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>00101100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>00101101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>00101110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>00101111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>455</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>00110000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>00110001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>303</v>
+      </c>
+      <c r="D51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="1"/>
+        <v>00110010</v>
+      </c>
+      <c r="C52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="1"/>
+        <v>00110011</v>
+      </c>
+      <c r="C53" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="1"/>
+        <v>00110100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" t="s">
+        <v>497</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="1"/>
+        <v>00110101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55" t="s">
+        <v>497</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="1"/>
+        <v>00110110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>296</v>
+      </c>
+      <c r="D56" t="s">
+        <v>497</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="1"/>
+        <v>00110111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" t="s">
+        <v>497</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="1"/>
+        <v>00111000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>455</v>
+      </c>
+      <c r="D58" t="s">
+        <v>497</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="1"/>
+        <v>00111001</v>
+      </c>
+      <c r="C59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D59" t="s">
+        <v>497</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="1"/>
+        <v>00111010</v>
+      </c>
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" t="s">
+        <v>497</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="1"/>
+        <v>00111011</v>
+      </c>
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" t="s">
+        <v>497</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="1"/>
+        <v>00111100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" t="s">
+        <v>497</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="1"/>
+        <v>00111101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>502</v>
+      </c>
+      <c r="D63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="1"/>
+        <v>00111110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>503</v>
+      </c>
+      <c r="D64" t="s">
+        <v>497</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="1"/>
+        <v>00111111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>363</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="1"/>
+        <v>01000000</v>
+      </c>
+      <c r="C66" t="s">
+        <v>507</v>
+      </c>
+      <c r="D66" t="s">
+        <v>497</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>01000001</v>
+      </c>
+      <c r="C67" t="s">
+        <v>508</v>
+      </c>
+      <c r="D67" t="s">
+        <v>497</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="2">SUM(E67:I67)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" ref="B68:B131" si="3">DEC2BIN(A68, 8)</f>
+        <v>01000010</v>
+      </c>
+      <c r="C68" t="s">
+        <v>368</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="3"/>
+        <v>01000011</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="3"/>
+        <v>01000100</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="3"/>
+        <v>01000101</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="3"/>
+        <v>01000110</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="3"/>
+        <v>01000111</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="3"/>
+        <v>01001000</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="3"/>
+        <v>01001001</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="3"/>
+        <v>01001010</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="3"/>
+        <v>01001011</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="3"/>
+        <v>01001100</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="3"/>
+        <v>01001101</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="3"/>
+        <v>01001110</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="3"/>
+        <v>01001111</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="3"/>
+        <v>01010000</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="3"/>
+        <v>01010001</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="3"/>
+        <v>01010010</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="3"/>
+        <v>01010011</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="3"/>
+        <v>01010100</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="3"/>
+        <v>01010101</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="3"/>
+        <v>01010110</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="3"/>
+        <v>01010111</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="3"/>
+        <v>01011000</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="3"/>
+        <v>01011001</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="3"/>
+        <v>01011010</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="3"/>
+        <v>01011011</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="3"/>
+        <v>01011100</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="3"/>
+        <v>01011101</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="3"/>
+        <v>01011110</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="3"/>
+        <v>01011111</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="3"/>
+        <v>01100000</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="3"/>
+        <v>01100001</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="3"/>
+        <v>01100010</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="3"/>
+        <v>01100011</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="3"/>
+        <v>01100100</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="3"/>
+        <v>01100101</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="3"/>
+        <v>01100110</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="3"/>
+        <v>01100111</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="3"/>
+        <v>01101000</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="3"/>
+        <v>01101001</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="3"/>
+        <v>01101010</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="3"/>
+        <v>01101011</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="3"/>
+        <v>01101100</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="3"/>
+        <v>01101101</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>494</v>
-      </c>
-      <c r="B9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B11" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>495</v>
-      </c>
-      <c r="B12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B19" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>497</v>
-      </c>
-      <c r="B21" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>499</v>
-      </c>
-      <c r="B22" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>365</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>365</v>
-      </c>
-      <c r="B24" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>367</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>367</v>
-      </c>
-      <c r="B27" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B112" t="str">
+        <f t="shared" si="3"/>
+        <v>01101110</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="3"/>
+        <v>01101111</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="3"/>
+        <v>01110000</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="3"/>
+        <v>01110001</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="3"/>
+        <v>01110010</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="3"/>
+        <v>01110011</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="3"/>
+        <v>01110100</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="3"/>
+        <v>01110101</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="3"/>
+        <v>01110110</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="3"/>
+        <v>01110111</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="3"/>
+        <v>01111000</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="3"/>
+        <v>01111001</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="3"/>
+        <v>01111010</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="3"/>
+        <v>01111011</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="3"/>
+        <v>01111100</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="3"/>
+        <v>01111101</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="3"/>
+        <v>01111110</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>127</v>
       </c>
-      <c r="B28" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B129" t="str">
+        <f t="shared" si="3"/>
+        <v>01111111</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="3"/>
+        <v>10000001</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J194" si="4">SUM(E131:I131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" ref="B132:B195" si="5">DEC2BIN(A132, 8)</f>
+        <v>10000010</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="5"/>
+        <v>10000011</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="5"/>
+        <v>10000100</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="5"/>
+        <v>10000101</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="5"/>
+        <v>10000110</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="5"/>
+        <v>10000111</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="5"/>
+        <v>10001000</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="5"/>
+        <v>10001001</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="5"/>
+        <v>10001010</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="5"/>
+        <v>10001011</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="5"/>
+        <v>10001100</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="5"/>
+        <v>10001101</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>142</v>
       </c>
-      <c r="B29" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B144" t="str">
+        <f t="shared" si="5"/>
+        <v>10001110</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="5"/>
+        <v>10001111</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="5"/>
+        <v>10010000</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="5"/>
+        <v>10010001</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="5"/>
+        <v>10010010</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="5"/>
+        <v>10010011</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="5"/>
+        <v>10010100</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="5"/>
+        <v>10010101</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="5"/>
+        <v>10010110</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="5"/>
+        <v>10010111</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="5"/>
+        <v>10011000</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="5"/>
+        <v>10011001</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="5"/>
+        <v>10011010</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="5"/>
+        <v>10011011</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="5"/>
+        <v>10011100</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="5"/>
+        <v>10011101</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="5"/>
+        <v>10011110</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="5"/>
+        <v>10011111</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="5"/>
+        <v>10100000</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="5"/>
+        <v>10100001</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="5"/>
+        <v>10100010</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="5"/>
+        <v>10100011</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="5"/>
+        <v>10100100</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="5"/>
+        <v>10100101</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="5"/>
+        <v>10100110</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="5"/>
+        <v>10100111</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="5"/>
+        <v>10101000</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="5"/>
+        <v>10101001</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="5"/>
+        <v>10101010</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="5"/>
+        <v>10101011</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="5"/>
+        <v>10101100</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="5"/>
+        <v>10101101</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="5"/>
+        <v>10101110</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="5"/>
+        <v>10101111</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="5"/>
+        <v>10110000</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="5"/>
+        <v>10110001</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="5"/>
+        <v>10110010</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="5"/>
+        <v>10110011</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="5"/>
+        <v>10110100</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="5"/>
+        <v>10110101</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="5"/>
+        <v>10110110</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="5"/>
+        <v>10110111</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="5"/>
+        <v>10111000</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="5"/>
+        <v>10111001</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="5"/>
+        <v>10111010</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="5"/>
+        <v>10111011</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="5"/>
+        <v>10111100</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="5"/>
+        <v>10111101</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="5"/>
+        <v>10111110</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="5"/>
+        <v>10111111</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="5"/>
+        <v>11000000</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="5"/>
+        <v>11000001</v>
+      </c>
+      <c r="J195">
+        <f t="shared" ref="J195:J256" si="6">SUM(E195:I195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" ref="B196:B257" si="7">DEC2BIN(A196, 8)</f>
+        <v>11000010</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="7"/>
+        <v>11000011</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="7"/>
+        <v>11000100</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="7"/>
+        <v>11000101</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="7"/>
+        <v>11000110</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="7"/>
+        <v>11000111</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="7"/>
+        <v>11001000</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="7"/>
+        <v>11001001</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="7"/>
+        <v>11001010</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="7"/>
+        <v>11001011</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="7"/>
+        <v>11001100</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="7"/>
+        <v>11001101</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="7"/>
+        <v>11001110</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="7"/>
+        <v>11001111</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="7"/>
+        <v>11010000</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="7"/>
+        <v>11010001</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="7"/>
+        <v>11010010</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="7"/>
+        <v>11010011</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="7"/>
+        <v>11010100</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="7"/>
+        <v>11010101</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="7"/>
+        <v>11010110</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="7"/>
+        <v>11010111</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="7"/>
+        <v>11011000</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="7"/>
+        <v>11011001</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>218</v>
       </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B31" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B220" t="str">
+        <f t="shared" si="7"/>
+        <v>11011010</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="7"/>
+        <v>11011011</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="7"/>
+        <v>11011100</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="7"/>
+        <v>11011101</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="7"/>
+        <v>11011110</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="7"/>
+        <v>11011111</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="7"/>
+        <v>11100000</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="7"/>
+        <v>11100001</v>
+      </c>
+      <c r="J227">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="7"/>
+        <v>11100010</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="7"/>
+        <v>11100011</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="7"/>
+        <v>11100100</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>229</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>501</v>
-      </c>
-      <c r="B33" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>502</v>
-      </c>
-      <c r="B34" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>503</v>
-      </c>
-      <c r="B35" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>504</v>
-      </c>
-      <c r="B36" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>292</v>
-      </c>
-      <c r="B39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>294</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>296</v>
-      </c>
-      <c r="B41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>298</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>455</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>301</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>303</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>305</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>307</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>294</v>
-      </c>
-      <c r="B49" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>455</v>
-      </c>
-      <c r="B52" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>301</v>
-      </c>
-      <c r="B53" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>303</v>
-      </c>
-      <c r="B54" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>305</v>
-      </c>
-      <c r="B55" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B56" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>505</v>
-      </c>
-      <c r="B57" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>506</v>
-      </c>
-      <c r="B58" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>368</v>
+      <c r="B231" t="str">
+        <f t="shared" si="7"/>
+        <v>11100101</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="7"/>
+        <v>11100110</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="7"/>
+        <v>11100111</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="7"/>
+        <v>11101000</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="7"/>
+        <v>11101001</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="7"/>
+        <v>11101010</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="7"/>
+        <v>11101011</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="7"/>
+        <v>11101100</v>
+      </c>
+      <c r="J238">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="7"/>
+        <v>11101101</v>
+      </c>
+      <c r="J239">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="7"/>
+        <v>11101110</v>
+      </c>
+      <c r="J240">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="7"/>
+        <v>11101111</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="7"/>
+        <v>11110000</v>
+      </c>
+      <c r="J242">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="7"/>
+        <v>11110001</v>
+      </c>
+      <c r="J243">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="7"/>
+        <v>11110010</v>
+      </c>
+      <c r="J244">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="7"/>
+        <v>11110011</v>
+      </c>
+      <c r="J245">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="7"/>
+        <v>11110100</v>
+      </c>
+      <c r="J246">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="7"/>
+        <v>11110101</v>
+      </c>
+      <c r="J247">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="7"/>
+        <v>11110110</v>
+      </c>
+      <c r="J248">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="7"/>
+        <v>11110111</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="7"/>
+        <v>11111000</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="7"/>
+        <v>11111001</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="7"/>
+        <v>11111010</v>
+      </c>
+      <c r="J252">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="7"/>
+        <v>11111011</v>
+      </c>
+      <c r="J253">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="7"/>
+        <v>11111100</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="7"/>
+        <v>11111101</v>
+      </c>
+      <c r="J255">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="7"/>
+        <v>11111110</v>
+      </c>
+      <c r="J256">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="7"/>
+        <v>11111111</v>
       </c>
     </row>
   </sheetData>
@@ -40709,27 +44516,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
       <c r="T1" t="s">
         <v>370</v>
       </c>
@@ -40747,30 +44554,30 @@
       </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="10"/>
+      <c r="M2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="10"/>
       <c r="S2" t="s">
         <v>11</v>
       </c>
@@ -40924,60 +44731,60 @@
       <c r="S3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8" t="s">
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8" t="s">
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
       <c r="AL3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AM3" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8" t="s">
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8" t="s">
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8" t="s">
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8" t="s">
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8" t="s">
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8" t="s">
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="BD3" s="8"/>
+      <c r="BD3" s="10"/>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="Y4">
@@ -53392,11 +57199,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="A1:S1"/>
@@ -53409,6 +57211,11 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
